--- a/result_analysis/RQ1_results_openvla-7b.xlsx
+++ b/result_analysis/RQ1_results_openvla-7b.xlsx
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0.1781237083107761</v>
@@ -5037,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0.2147144983660945</v>
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0.5223485708599217</v>
@@ -5115,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0.7351260773532993</v>
@@ -5154,7 +5154,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0.1974941300064488</v>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0.453413971642446</v>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0.4807950313309382</v>
@@ -5271,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0.1443111681910804</v>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0.5253043984503588</v>
@@ -5349,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0.1242318881866468</v>
@@ -5388,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0.2257244769931289</v>
@@ -5427,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0.1112920517778171</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0.173587445997664</v>
@@ -5505,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0.2392748605093374</v>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0.1933804275597471</v>
@@ -5583,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0.1857749927553128</v>
@@ -5622,7 +5622,7 @@
         <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0.1678967121757588</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0.3005538250803521</v>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0.2049339475083143</v>
@@ -5739,7 +5739,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0.1211074917745169</v>
@@ -5778,7 +5778,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0.1341217268086912</v>
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0.1839106314901079</v>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0.3133852502046769</v>
@@ -5895,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0.3695744316868116</v>
@@ -5934,7 +5934,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0.1952933143594438</v>
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0.2059154313702497</v>
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0.2330060571123836</v>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0.1426344746013852</v>
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0.3403808558830518</v>
@@ -6129,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0.3854087992985056</v>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0.4418756289351964</v>
@@ -6207,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0.4045258272071217</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0.1714825212553586</v>
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0.4777154817134521</v>
@@ -6324,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0.3041115166013037</v>
@@ -6363,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0.5053511099051666</v>
@@ -6402,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0.3914259661210773</v>
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0.175780722439331</v>
@@ -6480,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0.19968829541196</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>1.147203058600228</v>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0.3689105025020192</v>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0.1520495560044513</v>
@@ -6636,7 +6636,7 @@
         <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0.1220422122734739</v>
@@ -6675,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>0.4754988312551515</v>
@@ -6714,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>0.2308508058732856</v>
@@ -6753,7 +6753,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0.1726452784574461</v>
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0.2812681165238712</v>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0.5042712590255082</v>
@@ -6870,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0.3461402552600337</v>
@@ -6909,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0.3537943666511387</v>
@@ -6948,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>0.1884327317218614</v>
@@ -6987,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0.1473529136373982</v>
@@ -7026,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>0.2735695447753655</v>
@@ -7065,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0.3417724592262913</v>
@@ -7104,7 +7104,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0.2611003033476168</v>
@@ -7143,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0.412628809025584</v>
@@ -7182,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>0.2989519691366621</v>
@@ -7221,7 +7221,7 @@
         <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0.1897870864564448</v>
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>0.2308618889388092</v>
@@ -7299,7 +7299,7 @@
         <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0.146513517276815</v>
@@ -7338,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0.2044409699562263</v>
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>0.3906594453649435</v>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>0.3060056848622565</v>
@@ -7455,7 +7455,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0.2269724271520628</v>
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>0.2641344177423584</v>
@@ -7533,7 +7533,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0.2643836288053338</v>
@@ -7572,7 +7572,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0.1717205659067221</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>0.1499517761332111</v>
@@ -7650,7 +7650,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>0.3541106324836873</v>
@@ -7689,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>0.1752247097129079</v>
@@ -7728,7 +7728,7 @@
         <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0.1789240661037925</v>
@@ -7767,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>0.2014067959460132</v>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>0.1619685330830332</v>
@@ -7845,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>0.1336377041610566</v>
@@ -7884,7 +7884,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>0.2384389307867406</v>
@@ -7923,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>0.6647120270704461</v>
@@ -7962,7 +7962,7 @@
         <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0.1991792362055528</v>
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>0.5618975811420023</v>
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>0.1679910460843473</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>0.3409280272758703</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>0.4489767990519887</v>
@@ -8157,7 +8157,7 @@
         <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0.1065493963983239</v>
@@ -8196,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>0.7232856844688786</v>
@@ -8235,7 +8235,7 @@
         <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0.2485143918560753</v>
@@ -8274,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>0.517646942148273</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>0.4145432237008608</v>
@@ -8352,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>0.9029056866232287</v>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>0.2067166604105761</v>
@@ -8430,7 +8430,7 @@
         <v>1</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0.2820584894684812</v>
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>0.4538511742012818</v>
@@ -8508,7 +8508,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>0.6321631897335324</v>
@@ -8547,7 +8547,7 @@
         <v>1</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0.2657389846530811</v>
@@ -8586,7 +8586,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0.1685182657379672</v>
@@ -8625,7 +8625,7 @@
         <v>1</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0.2168327841750487</v>
@@ -8664,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>0.2220331262042582</v>
@@ -8703,7 +8703,7 @@
         <v>1</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0.1989757476256692</v>
@@ -8742,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>0.27200592661908</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>0.7740445698161745</v>
@@ -8820,7 +8820,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>0.1162605051573659</v>
@@ -8859,7 +8859,7 @@
         <v>1</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0.2387611324151963</v>
@@ -8898,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>0.595119062489723</v>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>0.3362165590049601</v>
@@ -8976,7 +8976,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0.08559092705012913</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>0.5587653173274264</v>
@@ -9054,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>0.3197635327073664</v>
@@ -9093,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>0.250947026655478</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>0.2908549524884401</v>
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>0.1059397239155947</v>
@@ -9210,7 +9210,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>0.44133270045487</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>0.362226867433777</v>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>0.2921389787876698</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>0.1870953507474754</v>
@@ -9366,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>0.2199163765213964</v>
@@ -9405,7 +9405,7 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>0.4351700539930073</v>
@@ -9444,7 +9444,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0.2909969671228221</v>
